--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -186,7 +186,7 @@
     <t xml:space="preserve">Семёнович</t>
   </si>
   <si>
-    <t xml:space="preserve">М</t>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">29.01.1999</t>
@@ -237,43 +237,67 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">122-679-394 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">966210862003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137-595-010 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">966376950840</t>
+    <t xml:space="preserve"> 129-997-902 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">969200255407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.09.1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79838330000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lalala@hshs.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121-604-127 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965781743834</t>
   </si>
   <si>
     <t xml:space="preserve">1234</t>
   </si>
   <si>
-    <t xml:space="preserve">414243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123-353-447 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">964381001594</t>
-  </si>
-  <si>
     <t xml:space="preserve">989898</t>
   </si>
   <si>
-    <t xml:space="preserve">129-196-061 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">962362003908</t>
+    <t xml:space="preserve">18.02.1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Санкт-Петербург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдел внедрения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ведущий специалист</t>
   </si>
   <si>
     <t xml:space="preserve">Москва</t>
@@ -286,9 +310,6 @@
   </si>
   <si>
     <t xml:space="preserve">[50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Санкт-Петербург</t>
   </si>
   <si>
     <t xml:space="preserve">Ленинградская область</t>
@@ -697,11 +718,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -788,8 +809,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X8" activeCellId="0" sqref="X8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC6" activeCellId="0" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1179,11 +1200,14 @@
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="10" t="s">
         <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1193,89 +1217,121 @@
         <v>69</v>
       </c>
       <c r="R5" s="8"/>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="9"/>
-      <c r="I6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="X6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="Y6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="O7" s="11"/>
       <c r="R7" s="8"/>
-      <c r="X7" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="11"/>
       <c r="R8" s="8"/>
-      <c r="X8" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="H9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="R9" s="8"/>
-      <c r="X9" s="10"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R10" s="8"/>
@@ -4264,6 +4320,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" display="lalala@hshs.ru"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4292,10 +4351,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -4304,10 +4363,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -4328,7 +4387,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B4" s="12" t="n">
         <v>1</v>
@@ -4340,7 +4399,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B5" s="12" t="n">
         <v>4</v>
@@ -4362,7 +4421,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4372,7 +4431,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4382,7 +4441,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4392,7 +4451,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4402,7 +4461,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4412,7 +4471,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4422,7 +4481,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4432,7 +4491,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -4442,7 +4501,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -4452,7 +4511,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4462,7 +4521,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4472,7 +4531,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4482,7 +4541,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4492,7 +4551,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -4502,7 +4561,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -4512,7 +4571,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4522,7 +4581,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4532,7 +4591,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4542,7 +4601,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -4552,7 +4611,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -4562,7 +4621,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4572,7 +4631,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -4582,7 +4641,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -4592,7 +4651,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4602,7 +4661,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -4612,7 +4671,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -4622,7 +4681,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -4632,7 +4691,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -4642,7 +4701,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -4652,7 +4711,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -4662,7 +4721,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -4672,7 +4731,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -4682,7 +4741,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -4692,7 +4751,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -4702,7 +4761,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -4712,7 +4771,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -4722,7 +4781,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -4732,7 +4791,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -4742,7 +4801,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -4752,7 +4811,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -4762,7 +4821,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -4772,7 +4831,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4782,7 +4841,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -4792,7 +4851,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -4802,7 +4861,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -4812,7 +4871,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -4822,7 +4881,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -4832,7 +4891,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -4842,7 +4901,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -4852,7 +4911,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -4862,7 +4921,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -4872,7 +4931,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -4882,7 +4941,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -4892,7 +4951,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -4902,7 +4961,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -4912,7 +4971,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -4922,7 +4981,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -4932,7 +4991,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -4942,7 +5001,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -4952,7 +5011,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -4962,7 +5021,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -4972,7 +5031,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -4982,7 +5041,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -4992,7 +5051,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -5002,7 +5061,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -5012,7 +5071,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -5022,7 +5081,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -5032,7 +5091,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -5042,7 +5101,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -5052,7 +5111,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -5062,7 +5121,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -5072,7 +5131,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -5082,7 +5141,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -5092,7 +5151,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -5102,7 +5161,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -5112,7 +5171,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -5122,7 +5181,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -5132,7 +5191,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -5142,7 +5201,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="187">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -234,84 +234,135 @@
     <t xml:space="preserve">98ebe789-137e-4d9c-b219-68188f79918a</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 129-997-902 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">969200255407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.09.1950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79838330000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lalala@hshs.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121-604-127 98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">965781743834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">989898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.02.1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Москва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111111</t>
+    <t xml:space="preserve">Ноздрин4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Георгиевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.07.1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185-169-317 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965684216046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07.2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">770-057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Дагестан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Махачкала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыуа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">авы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ыва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдел поттержки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувашская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162-473-033 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961078424955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185-878-418 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961233723102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноздрин5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110-068-672 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965947816286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168-161-878 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965359464125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197-086-878 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967785490546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[50]</t>
   </si>
   <si>
     <t xml:space="preserve">Санкт-Петербург</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отдел внедрения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ведущий специалист</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Москва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Московская область</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[50]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ленинградская область</t>
   </si>
   <si>
@@ -324,9 +375,6 @@
     <t xml:space="preserve">Республика Бурятия</t>
   </si>
   <si>
-    <t xml:space="preserve">Республика Дагестан</t>
-  </si>
-  <si>
     <t xml:space="preserve">Республика Ингушетия</t>
   </si>
   <si>
@@ -373,9 +421,6 @@
   </si>
   <si>
     <t xml:space="preserve">Чеченская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чувашская Республика</t>
   </si>
   <si>
     <t xml:space="preserve">Алтайский край</t>
@@ -563,7 +608,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -629,11 +674,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -677,7 +717,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -714,16 +754,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -809,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC6" activeCellId="0" sqref="AC6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,153 +1232,711 @@
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="8"/>
-      <c r="X5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="N6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="O6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="R6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="W7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AA7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="R7" s="8"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="H8" s="9"/>
-      <c r="M8" s="11"/>
-      <c r="R8" s="8"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="9"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="8"/>
-      <c r="X9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R10" s="8"/>
+      <c r="S10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R11" s="8"/>
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R15" s="8"/>
@@ -1365,6 +1955,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R20" s="8"/>
+      <c r="Y20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R21" s="8"/>
@@ -4320,9 +4911,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" display="lalala@hshs.ru"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4344,864 +4932,864 @@
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="12" t="n">
+      <c r="A3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="12" t="n">
+      <c r="A4" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="A5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="A30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="A32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="A35" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="A39" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="A40" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="A42" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="A44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="A47" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="A48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="A63" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="A67" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="A68" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="A69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="A70" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="A71" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="A72" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="A73" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
+      <c r="A74" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="A75" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="A76" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="A80" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="A82" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="A83" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="A84" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
-        <v>171</v>
+      <c r="A85" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="201">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -349,6 +349,48 @@
   </si>
   <si>
     <t xml:space="preserve">34343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120-387-532 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963077912706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161-790-830 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">969264879048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноздрин6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107-293-973 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960189070065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163-650-272 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">962501809328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trkktlglflrtrt;;rt;tr;rt;otooto6oyooyo</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -841,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC18" activeCellId="0" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1939,16 +1981,291 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R16" s="8"/>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R18" s="8"/>
+      <c r="B18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R19" s="8"/>
@@ -4942,7 +5259,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4951,10 +5268,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4963,7 +5280,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>47</v>
@@ -4975,7 +5292,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1</v>
@@ -4987,7 +5304,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>4</v>
@@ -5009,7 +5326,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5019,7 +5336,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5039,7 +5356,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5049,7 +5366,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5059,7 +5376,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5069,7 +5386,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5079,7 +5396,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5089,7 +5406,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5099,7 +5416,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5109,7 +5426,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5119,7 +5436,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5129,7 +5446,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5139,7 +5456,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5149,7 +5466,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5159,7 +5476,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5169,7 +5486,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5179,7 +5496,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5189,7 +5506,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5209,7 +5526,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5219,7 +5536,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5229,7 +5546,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5239,7 +5556,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5249,7 +5566,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5259,7 +5576,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5269,7 +5586,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5279,7 +5596,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -5289,7 +5606,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -5299,7 +5616,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5309,7 +5626,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5319,7 +5636,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5329,7 +5646,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5339,7 +5656,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5349,7 +5666,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5359,7 +5676,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5369,7 +5686,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5379,7 +5696,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5389,7 +5706,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5399,7 +5716,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5409,7 +5726,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5419,7 +5736,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5429,7 +5746,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5439,7 +5756,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5449,7 +5766,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5459,7 +5776,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5469,7 +5786,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5479,7 +5796,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5489,7 +5806,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5499,7 +5816,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5509,7 +5826,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5519,7 +5836,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5529,7 +5846,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5539,7 +5856,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5549,7 +5866,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5559,7 +5876,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5569,7 +5886,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5579,7 +5896,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5589,7 +5906,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5599,7 +5916,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5609,7 +5926,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5619,7 +5936,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5629,7 +5946,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5639,7 +5956,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5649,7 +5966,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5659,7 +5976,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5669,7 +5986,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5679,7 +5996,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5689,7 +6006,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5699,7 +6016,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5709,7 +6026,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5719,7 +6036,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5729,7 +6046,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5739,7 +6056,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5749,7 +6066,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5759,7 +6076,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5769,7 +6086,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5779,7 +6096,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5789,7 +6106,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="224">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -391,6 +391,75 @@
   </si>
   <si>
     <t xml:space="preserve">trkktlglflrtrt;;rt;tr;rt;otooto6oyooyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79880987890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hfjfifj@djjdjd.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135-373-688 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">962405894200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">741432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jfjjfjjfj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79880987891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jfjjd@jdjdjd.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146-779-122 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">966417061553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">741434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kl;fg,ofvp.ot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181-324-709 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963958807057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">741034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрличико</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gfklhfgl“hkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156-708-645 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961379427300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">741035</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -796,8 +865,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -883,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC18" activeCellId="0" sqref="AC18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC22" activeCellId="0" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2268,17 +2337,309 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R19" s="8"/>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R20" s="8"/>
-      <c r="Y20" s="9"/>
+      <c r="B20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R21" s="8"/>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R22" s="8"/>
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R23" s="8"/>
@@ -5228,6 +5589,10 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H19" r:id="rId1" display="hfjfifj@djjdjd.ru"/>
+    <hyperlink ref="H20" r:id="rId2" display="jfjjd@jdjdjd.ru"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5259,7 +5624,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -5268,10 +5633,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -5280,7 +5645,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>47</v>
@@ -5292,7 +5657,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1</v>
@@ -5304,7 +5669,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>4</v>
@@ -5326,7 +5691,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5336,7 +5701,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5356,7 +5721,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5366,7 +5731,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5376,7 +5741,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5386,7 +5751,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5396,7 +5761,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5406,7 +5771,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5416,7 +5781,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5426,7 +5791,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5436,7 +5801,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5446,7 +5811,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5456,7 +5821,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5466,7 +5831,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5476,7 +5841,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5486,7 +5851,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5496,7 +5861,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5506,7 +5871,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5526,7 +5891,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5536,7 +5901,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5546,7 +5911,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5556,7 +5921,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5566,7 +5931,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5576,7 +5941,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5586,7 +5951,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5596,7 +5961,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -5606,7 +5971,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -5616,7 +5981,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5626,7 +5991,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5636,7 +6001,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5646,7 +6011,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5656,7 +6021,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5666,7 +6031,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5676,7 +6041,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5686,7 +6051,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5696,7 +6061,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5706,7 +6071,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5716,7 +6081,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5726,7 +6091,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5736,7 +6101,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5746,7 +6111,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5756,7 +6121,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5766,7 +6131,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5776,7 +6141,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5786,7 +6151,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5796,7 +6161,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5806,7 +6171,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5816,7 +6181,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5826,7 +6191,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5836,7 +6201,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5846,7 +6211,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5856,7 +6221,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5866,7 +6231,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5876,7 +6241,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5886,7 +6251,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5896,7 +6261,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5906,7 +6271,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5916,7 +6281,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5926,7 +6291,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5936,7 +6301,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5946,7 +6311,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5956,7 +6321,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5966,7 +6331,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5976,7 +6341,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5986,7 +6351,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5996,7 +6361,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -6006,7 +6371,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -6016,7 +6381,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -6026,7 +6391,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -6036,7 +6401,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -6046,7 +6411,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -6056,7 +6421,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -6066,7 +6431,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -6076,7 +6441,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -6086,7 +6451,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -6096,7 +6461,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -6106,7 +6471,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">98ebe789-137e-4d9c-b219-68188f79918a</t>
   </si>
   <si>
-    <t xml:space="preserve">Ноздрин4</t>
+    <t xml:space="preserve">Ноздрин6</t>
   </si>
   <si>
     <t xml:space="preserve">Александр</t>
@@ -249,16 +249,16 @@
     <t xml:space="preserve">01.07.1990</t>
   </si>
   <si>
-    <t xml:space="preserve">185-169-317 97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">965684216046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">749432</t>
+    <t xml:space="preserve">158-962-841 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961765607026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">740031</t>
   </si>
   <si>
     <t xml:space="preserve">15.07.2010</t>
@@ -291,247 +291,211 @@
     <t xml:space="preserve">ыва</t>
   </si>
   <si>
+    <t xml:space="preserve">Юрличико</t>
+  </si>
+  <si>
     <t xml:space="preserve">Отдел поттержки</t>
   </si>
   <si>
+    <t xml:space="preserve">New position</t>
+  </si>
+  <si>
     <t xml:space="preserve">нет</t>
   </si>
   <si>
+    <t xml:space="preserve">146-721-029 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">969205419472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдел поттержки2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.07.1911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105-225-367 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">966079605600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106-537-098 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">968335188538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132-554-373 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963008516677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">886987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111-135-749 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963919488576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">886989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164-984-081 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960646907999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135-886-328 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961678765097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191-154-472 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967969827503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[77]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[50]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Санкт-Петербург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ленинградская область</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Адыгея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Башкортостан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Бурятия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Ингушетия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабардино-Балкарская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Калмыкия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карачаево-Черкесская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Карелия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Коми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Крым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Марий Эл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Мордовия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Саха (Якутия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Северная Осетия — Алания</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Татарстан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Тыва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Удмуртская Республика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Хакасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чеченская Республика</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чувашская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162-473-033 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961078424955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185-878-418 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961233723102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноздрин5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110-068-672 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">965947816286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168-161-878 98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">965359464125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197-086-878 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967785490546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120-387-532 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963077912706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161-790-830 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">969264879048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ноздрин6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107-293-973 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960189070065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163-650-272 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">962501809328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trkktlglflrtrt;;rt;tr;rt;otooto6oyooyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79880987890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hfjfifj@djjdjd.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135-373-688 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">962405894200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">741432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jfjjfjjfj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79880987891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jfjjd@jdjdjd.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146-779-122 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">966417061553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">741434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kl;fg,ofvp.ot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181-324-709 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963958807057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">741034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрличико</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gfklhfgl“hkl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156-708-645 95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961379427300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">741035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[77]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Московская область</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Санкт-Петербург</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ленинградская область</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Адыгея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Башкортостан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Бурятия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Ингушетия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабардино-Балкарская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Калмыкия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карачаево-Черкесская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Карелия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Коми</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Крым</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Марий Эл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Мордовия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Саха (Якутия)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Северная Осетия — Алания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Татарстан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Тыва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Удмуртская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Хакасия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чеченская Республика</t>
   </si>
   <si>
     <t xml:space="preserve">Алтайский край</t>
@@ -828,7 +792,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -862,10 +826,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -952,8 +912,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC22" activeCellId="0" sqref="AC22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1398,16 +1358,19 @@
         <v>83</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,16 +1390,16 @@
         <v>69</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>74</v>
@@ -1451,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>79</v>
@@ -1469,48 +1432,51 @@
         <v>83</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>75</v>
@@ -1540,48 +1506,51 @@
         <v>83</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>75</v>
@@ -1593,7 +1562,7 @@
         <v>77</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>79</v>
@@ -1611,48 +1580,51 @@
         <v>83</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>75</v>
@@ -1682,48 +1654,51 @@
         <v>83</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>75</v>
@@ -1735,7 +1710,7 @@
         <v>77</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>79</v>
@@ -1753,48 +1728,51 @@
         <v>83</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>75</v>
@@ -1824,48 +1802,51 @@
         <v>83</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>75</v>
@@ -1877,7 +1858,7 @@
         <v>77</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>79</v>
@@ -1895,48 +1876,51 @@
         <v>83</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>75</v>
@@ -1966,680 +1950,47 @@
         <v>83</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="R18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="R19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="R20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="R21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R23" s="8"/>
@@ -5589,10 +4940,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" display="hfjfifj@djjdjd.ru"/>
-    <hyperlink ref="H20" r:id="rId2" display="jfjjd@jdjdjd.ru"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5614,864 +4961,864 @@
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="200">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">98ebe789-137e-4d9c-b219-68188f79918a</t>
   </si>
   <si>
-    <t xml:space="preserve">Ноздрин6</t>
+    <t xml:space="preserve">Ноздрин</t>
   </si>
   <si>
     <t xml:space="preserve">Александр</t>
@@ -291,136 +291,100 @@
     <t xml:space="preserve">ыва</t>
   </si>
   <si>
+    <t xml:space="preserve">Отдел разработки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146-721-029 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">969205419472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдел тестирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185-810-330 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961969687862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">578890</t>
+  </si>
+  <si>
     <t xml:space="preserve">Юрличико</t>
   </si>
   <si>
-    <t xml:space="preserve">Отдел поттержки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146-721-029 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">969205419472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отдел поттержки2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.07.1911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105-225-367 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">966079605600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.07.2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106-537-098 49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">968335188538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132-554-373 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963008516677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">886987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111-135-749 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963919488576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">886989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164-984-081 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960646907999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135-886-328 00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961678765097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191-154-472 62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967969827503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2063</t>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101-043-933 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961798005362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">985643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ввыв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выывыы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+79990000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187-703-099 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">966183153862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189-252-056 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">966090669693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1012</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -683,7 +647,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -744,6 +708,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -792,7 +761,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -829,7 +798,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -912,8 +885,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,24 +1331,24 @@
         <v>83</v>
       </c>
       <c r="X5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>66</v>
@@ -1432,538 +1405,155 @@
         <v>83</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="Z6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AB6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="R7" s="8"/>
+      <c r="X7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="AA7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="I8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="R8" s="8"/>
+      <c r="X8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="AB8" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="R9" s="8"/>
       <c r="X9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="R10" s="8"/>
       <c r="X10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="8"/>
@@ -4961,864 +4551,864 @@
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="208">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -385,6 +385,30 @@
   </si>
   <si>
     <t xml:space="preserve">1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140-604-413 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967812125337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140-580-894 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961804022337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880955</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -647,7 +671,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -705,11 +729,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -798,11 +817,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -885,8 +904,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1546,11 +1565,153 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R12" s="8"/>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R13" s="8"/>
@@ -4551,7 +4712,7 @@
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
   </cols>
@@ -4561,7 +4722,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4570,10 +4731,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4582,7 +4743,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>47</v>
@@ -4594,7 +4755,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1</v>
@@ -4606,7 +4767,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>4</v>
@@ -4628,7 +4789,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4638,7 +4799,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4658,7 +4819,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4668,7 +4829,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4678,7 +4839,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4688,7 +4849,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4698,7 +4859,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4708,7 +4869,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4718,7 +4879,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4728,7 +4889,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4738,7 +4899,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4748,7 +4909,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4758,7 +4919,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4768,7 +4929,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4778,7 +4939,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4788,7 +4949,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4798,7 +4959,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4808,7 +4969,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4818,7 +4979,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4828,7 +4989,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4838,7 +4999,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4848,7 +5009,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4858,7 +5019,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4868,7 +5029,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4878,7 +5039,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4888,7 +5049,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4898,7 +5059,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4908,7 +5069,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4918,7 +5079,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4928,7 +5089,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4938,7 +5099,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4948,7 +5109,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4958,7 +5119,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4968,7 +5129,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4978,7 +5139,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4988,7 +5149,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4998,7 +5159,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5008,7 +5169,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5018,7 +5179,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5028,7 +5189,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5038,7 +5199,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5048,7 +5209,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5058,7 +5219,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5068,7 +5229,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5078,7 +5239,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5088,7 +5249,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5098,7 +5259,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5108,7 +5269,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5118,7 +5279,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5128,7 +5289,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5138,7 +5299,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5148,7 +5309,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5158,7 +5319,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5168,7 +5329,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5178,7 +5339,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5188,7 +5349,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5198,7 +5359,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5208,7 +5369,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5218,7 +5379,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5228,7 +5389,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5238,7 +5399,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5248,7 +5409,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5258,7 +5419,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5268,7 +5429,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5278,7 +5439,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5288,7 +5449,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5298,7 +5459,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5308,7 +5469,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5318,7 +5479,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5328,7 +5489,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5338,7 +5499,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5348,7 +5509,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5358,7 +5519,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5368,7 +5529,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5378,7 +5539,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5388,7 +5549,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5398,7 +5559,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5408,7 +5569,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -339,9 +339,6 @@
     <t xml:space="preserve">578890</t>
   </si>
   <si>
-    <t xml:space="preserve">Юрличико</t>
-  </si>
-  <si>
     <t xml:space="preserve">v</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
     <t xml:space="preserve">012341</t>
   </si>
   <si>
+    <t xml:space="preserve">8(933)421-87-41</t>
+  </si>
+  <si>
     <t xml:space="preserve">189-252-056 96</t>
   </si>
   <si>
@@ -409,6 +409,24 @@
   </si>
   <si>
     <t xml:space="preserve">880955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8(907)146-66-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155-126-463 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963967134577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07.2017</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -671,7 +689,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -732,6 +750,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -780,7 +803,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -817,11 +840,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z10" activeCellId="0" sqref="Z10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1459,8 +1486,8 @@
         <v>99</v>
       </c>
       <c r="R7" s="8"/>
-      <c r="X7" s="1" t="s">
-        <v>100</v>
+      <c r="X7" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>86</v>
@@ -1471,59 +1498,59 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R8" s="8"/>
       <c r="X8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="R9" s="8"/>
-      <c r="X9" s="1" t="s">
-        <v>100</v>
+      <c r="X9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>86</v>
@@ -1534,13 +1561,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>108</v>
+      <c r="G10" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>113</v>
@@ -1552,11 +1579,11 @@
         <v>115</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R10" s="8"/>
-      <c r="X10" s="1" t="s">
-        <v>100</v>
+      <c r="X10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>86</v>
@@ -1713,8 +1740,82 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R13" s="8"/>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="8"/>
@@ -4712,864 +4813,864 @@
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="10" t="n">
+      <c r="A3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="10" t="n">
+      <c r="A4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="10" t="n">
+      <c r="A5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="A54" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="A55" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="A56" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="A57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="A58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="A59" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="A60" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="A61" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="A62" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="A63" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="A64" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="A65" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
+      <c r="A66" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="A67" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
+      <c r="A68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
+      <c r="A69" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="A70" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="A71" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="A72" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="A73" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="A74" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="A75" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="A76" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="A77" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="A78" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="A79" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="A80" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="A81" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="A82" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="A83" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="A84" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
-        <v>207</v>
+      <c r="A85" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -255,7 +255,7 @@
     <t xml:space="preserve">961765607026</t>
   </si>
   <si>
-    <t xml:space="preserve">2920</t>
+    <t xml:space="preserve">4444</t>
   </si>
   <si>
     <t xml:space="preserve">740031</t>
@@ -291,6 +291,9 @@
     <t xml:space="preserve">ыва</t>
   </si>
   <si>
+    <t xml:space="preserve">ООО Юрлицо</t>
+  </si>
+  <si>
     <t xml:space="preserve">Отдел разработки</t>
   </si>
   <si>
@@ -300,133 +303,16 @@
     <t xml:space="preserve">нет</t>
   </si>
   <si>
-    <t xml:space="preserve">Петров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146-721-029 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">969205419472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отдел тестирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junior Tester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185-810-330 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961969687862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">578890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101-043-933 84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961798005362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">985643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">да</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ввыв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">выывыы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+79990000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187-703-099 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">966183153862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8(933)421-87-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189-252-056 96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">966090669693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140-604-413 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967812125337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140-580-894 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961804022337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8(907)146-66-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155-126-463 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963967134577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">880957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.07.2017</t>
+    <t xml:space="preserve">100-100-783 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">964870892681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4444        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">740022</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -689,7 +575,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -750,11 +636,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -803,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,15 +721,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -931,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1377,24 +1254,24 @@
         <v>83</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>66</v>
@@ -1454,368 +1331,44 @@
         <v>23</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="R7" s="8"/>
       <c r="X7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="R8" s="8"/>
-      <c r="X8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="R9" s="8"/>
-      <c r="X9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="G10" s="9"/>
       <c r="R10" s="8"/>
-      <c r="X10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="X10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R14" s="8"/>
@@ -4813,864 +4366,864 @@
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="11" t="n">
-        <v>47</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="195">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">98ebe789-137e-4d9c-b219-68188f79918a</t>
   </si>
   <si>
-    <t xml:space="preserve">Ноздрин</t>
+    <t xml:space="preserve">Ноздрин1</t>
   </si>
   <si>
     <t xml:space="preserve">Александр</t>
@@ -249,13 +249,13 @@
     <t xml:space="preserve">01.07.1990</t>
   </si>
   <si>
-    <t xml:space="preserve">158-962-841 28</t>
+    <t xml:space="preserve">135-314-985 54</t>
   </si>
   <si>
     <t xml:space="preserve">961765607026</t>
   </si>
   <si>
-    <t xml:space="preserve">4444</t>
+    <t xml:space="preserve">4477</t>
   </si>
   <si>
     <t xml:space="preserve">740031</t>
@@ -303,16 +303,73 @@
     <t xml:space="preserve">нет</t>
   </si>
   <si>
-    <t xml:space="preserve">100-100-783 55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">964870892681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4444        </t>
+    <t xml:space="preserve">Ноздрин2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-519-367 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">964256241559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4466       </t>
   </si>
   <si>
     <t xml:space="preserve">740022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноздрин3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-378-938 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">964330663380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4477  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноздрин4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105-554-499 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">964885715558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноздрин5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115-890-881 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965417300986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965404335759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">privet111x+1@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175-702-440 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">969794747304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4401</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -721,7 +778,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X6" activeCellId="0" sqref="X6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,7 +1328,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>66</v>
@@ -1286,16 +1343,16 @@
         <v>69</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>74</v>
@@ -1344,25 +1401,377 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R7" s="8"/>
-      <c r="X7" s="9" t="s">
-        <v>84</v>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R8" s="8"/>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R9" s="8"/>
-      <c r="X9" s="9"/>
+      <c r="B9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="9"/>
-      <c r="R10" s="8"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R11" s="8"/>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="R12" s="8"/>
@@ -4345,6 +4754,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1" display="privet111x+1@yandex.ru"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4366,7 +4778,7 @@
       <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.29"/>
   </cols>
@@ -4376,7 +4788,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4385,10 +4797,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4397,7 +4809,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>47</v>
@@ -4409,7 +4821,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1</v>
@@ -4421,7 +4833,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>4</v>
@@ -4443,7 +4855,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4453,7 +4865,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4473,7 +4885,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4483,7 +4895,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4493,7 +4905,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4503,7 +4915,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4513,7 +4925,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4523,7 +4935,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4533,7 +4945,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4543,7 +4955,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4553,7 +4965,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4563,7 +4975,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4573,7 +4985,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4583,7 +4995,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4593,7 +5005,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4603,7 +5015,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4613,7 +5025,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4623,7 +5035,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -4633,7 +5045,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -4643,7 +5055,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -4653,7 +5065,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4663,7 +5075,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4673,7 +5085,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4683,7 +5095,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4693,7 +5105,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4703,7 +5115,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4713,7 +5125,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -4723,7 +5135,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -4733,7 +5145,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4743,7 +5155,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -4753,7 +5165,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4763,7 +5175,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -4773,7 +5185,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4783,7 +5195,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4793,7 +5205,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4803,7 +5215,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4813,7 +5225,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4823,7 +5235,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4833,7 +5245,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4843,7 +5255,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -4853,7 +5265,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -4863,7 +5275,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4873,7 +5285,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4883,7 +5295,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4893,7 +5305,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4903,7 +5315,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4913,7 +5325,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4923,7 +5335,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4933,7 +5345,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4943,7 +5355,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4953,7 +5365,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4963,7 +5375,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4973,7 +5385,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4983,7 +5395,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4993,7 +5405,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5003,7 +5415,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5013,7 +5425,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5023,7 +5435,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5033,7 +5445,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5043,7 +5455,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5053,7 +5465,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5063,7 +5475,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5073,7 +5485,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5083,7 +5495,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5093,7 +5505,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5103,7 +5515,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5113,7 +5525,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5123,7 +5535,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5133,7 +5545,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5143,7 +5555,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5153,7 +5565,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5163,7 +5575,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5173,7 +5585,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5183,7 +5595,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5193,7 +5605,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5203,7 +5615,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5213,7 +5625,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5223,7 +5635,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="199">
   <si>
     <t xml:space="preserve">ПОЛЕ</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t xml:space="preserve">4401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноздрин6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222</t>
   </si>
   <si>
     <t xml:space="preserve">[77]</t>
@@ -866,7 +878,7 @@
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1773,8 +1785,79 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R12" s="8"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="R13" s="8"/>
@@ -4788,7 +4871,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -4797,10 +4880,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4809,7 +4892,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>47</v>
@@ -4821,7 +4904,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>1</v>
@@ -4833,7 +4916,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>4</v>
@@ -4855,7 +4938,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4865,7 +4948,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4885,7 +4968,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4895,7 +4978,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4905,7 +4988,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -4915,7 +4998,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4925,7 +5008,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4935,7 +5018,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -4945,7 +5028,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -4955,7 +5038,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -4965,7 +5048,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -4975,7 +5058,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -4985,7 +5068,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -4995,7 +5078,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5005,7 +5088,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5015,7 +5098,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5025,7 +5108,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5035,7 +5118,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -5045,7 +5128,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -5055,7 +5138,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -5065,7 +5148,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5075,7 +5158,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5085,7 +5168,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5095,7 +5178,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5105,7 +5188,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5115,7 +5198,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5125,7 +5208,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -5135,7 +5218,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -5145,7 +5228,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5155,7 +5238,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -5165,7 +5248,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5175,7 +5258,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -5185,7 +5268,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -5195,7 +5278,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -5205,7 +5288,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -5215,7 +5298,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -5225,7 +5308,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -5235,7 +5318,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5245,7 +5328,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -5255,7 +5338,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -5265,7 +5348,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -5275,7 +5358,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5285,7 +5368,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -5295,7 +5378,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -5305,7 +5388,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5315,7 +5398,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -5325,7 +5408,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -5335,7 +5418,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -5345,7 +5428,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -5355,7 +5438,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -5365,7 +5448,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -5375,7 +5458,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -5385,7 +5468,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -5395,7 +5478,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -5405,7 +5488,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -5415,7 +5498,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -5425,7 +5508,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -5435,7 +5518,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -5445,7 +5528,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -5455,7 +5538,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5465,7 +5548,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5475,7 +5558,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5485,7 +5568,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5495,7 +5578,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5505,7 +5588,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5515,7 +5598,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5525,7 +5608,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5535,7 +5618,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5545,7 +5628,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5555,7 +5638,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5565,7 +5648,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5575,7 +5658,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5585,7 +5668,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5595,7 +5678,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5605,7 +5688,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5615,7 +5698,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5625,7 +5708,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5635,7 +5718,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
